--- a/doc/数据格式/送检导出清单.xlsx
+++ b/doc/数据格式/送检导出清单.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiang/Project/huaxia-messagae-manage/doc/数据格式/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,56 +33,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>行政许可送检数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期或限期使用日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请企业联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政许可检验项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>样品标记（生产日期或批号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可送检数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>送检日期</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期或限期使用日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -138,15 +150,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请企业联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政许可检验项目</t>
+    <t>行政许可送检日期</t>
+    <rPh sb="0" eb="1">
+      <t>xing z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu ke</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +168,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +181,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,12 +193,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,16 +217,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -219,9 +235,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -285,12 +304,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -320,12 +339,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -532,84 +551,84 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
